--- a/spliced/struggle/2023-04-06_17-43-36/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-36/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.8929322957992554</v>
+        <v>-1.044426798820496</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.803107976913452</v>
+        <v>-3.01202392578125</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2594650089740753</v>
+        <v>0.518471896648407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.044426798820496</v>
+        <v>-0.3640756905078888</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.01202392578125</v>
+        <v>-1.799456238746643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.518471896648407</v>
+        <v>0.3358231782913208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3640756905078888</v>
+        <v>-0.2800817191600799</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.799456238746643</v>
+        <v>-1.379181027412415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3358231782913208</v>
+        <v>0.1039998084306716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2800817191600799</v>
+        <v>0.2446515262126922</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.379181027412415</v>
+        <v>1.389260292053223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1039998084306716</v>
+        <v>-0.0532979927957057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2446515262126922</v>
+        <v>1.946674823760986</v>
       </c>
       <c r="B6" t="n">
-        <v>1.389260292053223</v>
+        <v>6.569244861602783</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0532979927957057</v>
+        <v>-1.187216639518738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.946674823760986</v>
+        <v>1.043357849121094</v>
       </c>
       <c r="B7" t="n">
-        <v>6.569244861602783</v>
+        <v>2.923295736312866</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.187216639518738</v>
+        <v>0.2732094824314117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.043357849121094</v>
+        <v>1.18660569190979</v>
       </c>
       <c r="B8" t="n">
-        <v>2.923295736312866</v>
+        <v>1.866804242134094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2732094824314117</v>
+        <v>0.970054030418396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.18660569190979</v>
+        <v>0.1301143020391464</v>
       </c>
       <c r="B9" t="n">
-        <v>1.866804242134094</v>
+        <v>2.222785949707031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.970054030418396</v>
+        <v>-0.0280998013913631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1301143020391464</v>
+        <v>-0.0589484944939613</v>
       </c>
       <c r="B10" t="n">
-        <v>2.222785949707031</v>
+        <v>-0.4569272100925445</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0280998013913631</v>
+        <v>-0.4526511430740356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0589484944939613</v>
+        <v>1.018770456314087</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4569272100925445</v>
+        <v>-5.163338661193848</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4526511430740356</v>
+        <v>-2.075872898101806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.018770456314087</v>
+        <v>-1.822669148445129</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.163338661193848</v>
+        <v>-3.153133630752563</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.075872898101806</v>
+        <v>0.7982481718063354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.822669148445129</v>
+        <v>-0.737772524356842</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.153133630752563</v>
+        <v>-2.180025339126587</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7982481718063354</v>
+        <v>-0.1867720484733581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.737772524356842</v>
+        <v>-0.2316706478595733</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.180025339126587</v>
+        <v>-2.678491353988647</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1867720484733581</v>
+        <v>-0.6579018831253052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2316706478595733</v>
+        <v>-0.2446515262126922</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.678491353988647</v>
+        <v>1.025031924247742</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6579018831253052</v>
+        <v>0.4431827366352081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2446515262126922</v>
+        <v>0.9764680862426758</v>
       </c>
       <c r="B16" t="n">
-        <v>1.025031924247742</v>
+        <v>5.428759574890137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4431827366352081</v>
+        <v>0.0936150997877121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9764680862426758</v>
+        <v>1.343140006065369</v>
       </c>
       <c r="B17" t="n">
-        <v>5.428759574890137</v>
+        <v>3.488956928253174</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0936150997877121</v>
+        <v>0.9002626538276672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.343140006065369</v>
+        <v>-0.2557998299598694</v>
       </c>
       <c r="B18" t="n">
-        <v>3.488956928253174</v>
+        <v>1.629635810852051</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9002626538276672</v>
+        <v>1.214094638824463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2557998299598694</v>
+        <v>-0.2167044430971145</v>
       </c>
       <c r="B19" t="n">
-        <v>1.629635810852051</v>
+        <v>1.373072385787964</v>
       </c>
       <c r="C19" t="n">
-        <v>1.214094638824463</v>
+        <v>-0.3060434758663177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2167044430971145</v>
+        <v>0.1476766765117645</v>
       </c>
       <c r="B20" t="n">
-        <v>1.373072385787964</v>
+        <v>-0.5042692422866821</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3060434758663177</v>
+        <v>-0.403781920671463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1476766765117645</v>
+        <v>0.0123700210824608</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5042692422866821</v>
+        <v>-2.318233489990234</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.403781920671463</v>
+        <v>-0.6989825367927551</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-43-36/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-36/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.044426798820496</v>
+        <v>-0.2800817191600799</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.01202392578125</v>
+        <v>-1.379181027412415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.518471896648407</v>
+        <v>0.1039998084306716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3640756905078888</v>
+        <v>0.2446515262126922</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.799456238746643</v>
+        <v>1.389260292053223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3358231782913208</v>
+        <v>-0.0532979927957057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2800817191600799</v>
+        <v>1.946674823760986</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.379181027412415</v>
+        <v>6.569244861602783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1039998084306716</v>
+        <v>-1.187216639518738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2446515262126922</v>
+        <v>1.043357849121094</v>
       </c>
       <c r="B5" t="n">
-        <v>1.389260292053223</v>
+        <v>2.923295736312866</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0532979927957057</v>
+        <v>0.2732094824314117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.946674823760986</v>
+        <v>1.18660569190979</v>
       </c>
       <c r="B6" t="n">
-        <v>6.569244861602783</v>
+        <v>1.866804242134094</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.187216639518738</v>
+        <v>0.970054030418396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.043357849121094</v>
+        <v>0.1301143020391464</v>
       </c>
       <c r="B7" t="n">
-        <v>2.923295736312866</v>
+        <v>2.222785949707031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2732094824314117</v>
+        <v>-0.0280998013913631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.18660569190979</v>
+        <v>-0.0589484944939613</v>
       </c>
       <c r="B8" t="n">
-        <v>1.866804242134094</v>
+        <v>-0.4569272100925445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.970054030418396</v>
+        <v>-0.4526511430740356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1301143020391464</v>
+        <v>1.018770456314087</v>
       </c>
       <c r="B9" t="n">
-        <v>2.222785949707031</v>
+        <v>-5.163338661193848</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0280998013913631</v>
+        <v>-2.075872898101806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0589484944939613</v>
+        <v>-1.822669148445129</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4569272100925445</v>
+        <v>-3.153133630752563</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4526511430740356</v>
+        <v>0.7982481718063354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.018770456314087</v>
+        <v>-0.737772524356842</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.163338661193848</v>
+        <v>-2.180025339126587</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.075872898101806</v>
+        <v>-0.1867720484733581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.822669148445129</v>
+        <v>-0.2316706478595733</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.153133630752563</v>
+        <v>-2.678491353988647</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7982481718063354</v>
+        <v>-0.6579018831253052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.737772524356842</v>
+        <v>-0.2446515262126922</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.180025339126587</v>
+        <v>1.025031924247742</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1867720484733581</v>
+        <v>0.4431827366352081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2316706478595733</v>
+        <v>0.9764680862426758</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.678491353988647</v>
+        <v>5.428759574890137</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6579018831253052</v>
+        <v>0.0936150997877121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2446515262126922</v>
+        <v>1.343140006065369</v>
       </c>
       <c r="B15" t="n">
-        <v>1.025031924247742</v>
+        <v>3.488956928253174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4431827366352081</v>
+        <v>0.9002626538276672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9764680862426758</v>
+        <v>-0.2557998299598694</v>
       </c>
       <c r="B16" t="n">
-        <v>5.428759574890137</v>
+        <v>1.629635810852051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0936150997877121</v>
+        <v>1.214094638824463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.343140006065369</v>
+        <v>-0.2167044430971145</v>
       </c>
       <c r="B17" t="n">
-        <v>3.488956928253174</v>
+        <v>1.373072385787964</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9002626538276672</v>
+        <v>-0.3060434758663177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2557998299598694</v>
+        <v>0.1476766765117645</v>
       </c>
       <c r="B18" t="n">
-        <v>1.629635810852051</v>
+        <v>-0.5042692422866821</v>
       </c>
       <c r="C18" t="n">
-        <v>1.214094638824463</v>
+        <v>-0.403781920671463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2167044430971145</v>
+        <v>0.0123700210824608</v>
       </c>
       <c r="B19" t="n">
-        <v>1.373072385787964</v>
+        <v>-2.318233489990234</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3060434758663177</v>
+        <v>-0.6989825367927551</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1476766765117645</v>
+        <v>-1.0144944190979</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.5042692422866821</v>
+        <v>-1.167210817337036</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.403781920671463</v>
+        <v>0.6551529765129089</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0123700210824608</v>
+        <v>-0.3874412775039673</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.318233489990234</v>
+        <v>-0.7050912380218506</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6989825367927551</v>
+        <v>0.0914770737290382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1458440721035003</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3762930035591125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0704022198915481</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2157881408929824</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3240640163421631</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0951422601938247</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0403171069920063</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1484402567148208</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0852157026529312</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1014036312699318</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3179553747177124</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0390953756868839</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.052381694316864</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1099557429552078</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0681114718317985</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0522289797663688</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.4196644127368927</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2273945808410644</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0937678143382072</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1565342247486114</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0591012127697467</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0331394411623477</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0291688162833452</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0047342055477201</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0655152946710586</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0163406450301408</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.00534507073462</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0612392425537109</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0022907445672899</v>
       </c>
     </row>
   </sheetData>
